--- a/report/报告与接口说明.xlsx
+++ b/report/报告与接口说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14617" windowHeight="8160" activeTab="2"/>
+    <workbookView windowWidth="14617" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="逻辑模型设计报告" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,13 +161,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -622,48 +615,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -673,101 +669,98 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,9 +772,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1116,7 +1106,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -1136,7 +1126,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1146,28 +1136,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="7">
+    <row r="3" spans="1:3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="7">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="7">
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1182,15 +1181,15 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD11"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9.07079646017699" style="7"/>
+    <col min="1" max="1" width="9.07079646017699" style="6"/>
     <col min="2" max="2" width="21.929203539823" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1205,32 +1204,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="7">
+    <row r="2" spans="1:3">
+      <c r="A2" s="6">
         <v>2.1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="7">
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6">
         <v>2.2</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="7">
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6">
         <v>2.3</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>2.4</v>
       </c>
       <c r="B5" t="s">
@@ -1240,52 +1248,70 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="7">
+    <row r="6" spans="1:3">
+      <c r="A6" s="6">
         <v>3.1</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="7" t="s">
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="7">
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="6">
         <v>6.1</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="7">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="7">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1299,8 +1325,8 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.85" outlineLevelCol="2"/>
@@ -1327,7 +1353,7 @@
       <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1338,7 +1364,7 @@
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>24</v>
       </c>
     </row>
